--- a/arquivos/retorno.xlsx
+++ b/arquivos/retorno.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2535" yWindow="2535" windowWidth="14400" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -438,17 +438,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="16.81640625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.7265625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="16.85546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="8.7109375" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -462,11 +462,7 @@
           <t>Cidade</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>QTD</t>
-        </is>
-      </c>
+      <c r="C1" s="2" t="n"/>
       <c r="D1" t="inlineStr">
         <is>
           <t>Distância em Metros</t>
@@ -475,6 +471,11 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>Tempo de Viagem</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>info</t>
         </is>
       </c>
     </row>
@@ -489,15 +490,17 @@
           <t>Alambari</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="D2" t="n">
         <v>51873</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>55 minutos</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>teste 2</t>
         </is>
       </c>
     </row>
@@ -512,15 +515,17 @@
           <t>Araçoiaba da Serra</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="D3" t="n">
         <v>20693</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>36 minutos</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>teste 3</t>
         </is>
       </c>
     </row>
@@ -535,15 +540,17 @@
           <t>Boituva</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="D4" t="n">
         <v>35608</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>36 minutos</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>teste 4</t>
         </is>
       </c>
     </row>
@@ -555,18 +562,20 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>BOITUVA/SP</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
+          <t>Capão Bonito</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>35608</v>
+        <v>128230</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36 minutos</t>
+          <t>1 hora 47 minutos</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>teste 5</t>
         </is>
       </c>
     </row>
@@ -578,18 +587,20 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Capão Bonito</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
+          <t>Pilar do Sul</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>128230</v>
+        <v>53938</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1 hora 47 minutos</t>
+          <t>1 hora 3 minutos</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>teste 6</t>
         </is>
       </c>
     </row>
@@ -601,482 +612,25 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Guapiara</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
+          <t>Itapeva</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>162844</v>
+        <v>189646</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2 horas 21 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Ibiúna</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>55506</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1 hora 17 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Itaberá</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>222459</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3 horas 1 minuto</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Itapetininga</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67405</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1 hora 8 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Itapetininga/SP</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>67405</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1 hora 8 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>ITU</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38735</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>41 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Juquiá</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>129301</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2 horas 36 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Laranjal Paulista</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75739</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1 hora 13 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Piedade</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>38847</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>52 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Pilar do Sul</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>53938</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1 hora 3 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Porangaba</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>87755</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1 hora 10 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Porto Feliz</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>32707</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>38 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Registro</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>160993</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3 horas 2 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Ribeirão Branco</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>193380</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2 horas 56 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>Salto de Pirapora</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>27234</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>40 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>São Miguel Arcanjo</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>86369</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1 hora 29 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>Sarapuí</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>55200</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1 hora 0 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>Sorocaba</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1 min</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>Tapiraí</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>69380</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1 hora 18 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>Tatuí</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" t="n">
-        <v>58661</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>53 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Votorantim</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10973</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>22 minutos</t>
+          <t>2 horas 34 minutos</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>teste 7</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>